--- a/app/public/json/prodata_en.xlsx
+++ b/app/public/json/prodata_en.xlsx
@@ -4,17 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="13935" windowHeight="12045"/>
+    <workbookView xWindow="-240" yWindow="3285" windowWidth="19665" windowHeight="10890" tabRatio="708" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Male health tonic" sheetId="1" r:id="rId1"/>
+    <sheet name="男性健康滋补" sheetId="1" r:id="rId1"/>
+    <sheet name="女性健康面容" sheetId="2" r:id="rId2"/>
+    <sheet name="综合健康护理" sheetId="3" r:id="rId3"/>
+    <sheet name="舒缓调理" sheetId="4" r:id="rId4"/>
+    <sheet name="提升免疫力" sheetId="5" r:id="rId5"/>
+    <sheet name="美容养颜" sheetId="6" r:id="rId6"/>
+    <sheet name="内脏保健" sheetId="7" r:id="rId7"/>
+    <sheet name="骨骼健康" sheetId="8" r:id="rId8"/>
+    <sheet name="明目健脑" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,67 +36,253 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>pro_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingredient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kangaroo Essence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 capsules / 90 capsules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liver Health Complex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">60 tablets / 180 tablets </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silybum Marianum, turmeric, Pueraria Mirifica</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Kangaroo powder, locust bean, Vitamin </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suitable for adult males.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This Australian specialty is a preferred supplement for men. Naturally high in male hormones, it is known as a “Male Treasure”.
+The Australian kangaroo is highly regarded for its vigour and fertility. This high quality kangaroo essence is extracted from the adult male Australian kangaroo.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manyuemei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuejiancao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High Strength Cranberry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cranberry extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Cranberries are a natural antibacterial fruit offering health benefits to women by preventing urinary tract infections. 
+Cranberries are tiny red berries rich in nutrients. They are an abundant source of Vitamin C and have the highest concentration of essential nutrients among fruit and vegetables with innumerable health benefits. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evening Primrose Oil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>270 capsules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Suitable for women suffering from premenstrual stress.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Evening primrose oil (1200mg/ capsule), γ-linolenic acid </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The Evening Primrose Oil is regarded as the most important nutraceutical discovery of the century. It can be used to treat a variety of ailments. 
+The evening primrose is known as the “Royal Imperial Medicine” and as the “King’s Medicine” in Europe. 
+The Evening Primrose Oil is rich in linolenic acid and other nutrients, helping you to maintain good health, it may reduce the effects of premenstrual stress and other menopausal symptoms. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenhaiyuyou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luoxuanzao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingredient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Odourless High Strength Wild Fish Oil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fumei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Co Q10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coenzyme Q10 (150mg/capsule)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the human body the occurrence of coenzyme Q10 decreases with age. This decrease, combined with unhealthy habits may affect your heart. 
+Coenzyme Q10 is known as the guardian of the heart and builds up immunity. It has antioxidant properties, delays aging and improves overall body vitality.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 180 capsules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Suitable for people who want to improve heart, brain, eye or joint health. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep sea fish oil originates from the deep sea where there is little or no pollution and is extracted as an unsaturated fat from fish. It is perfect for improving eyesight and is beneficial especially for the heart, brain, joints and eyes.
+It is rich in nutrients such as Omega-3 fatty acid, DHA and EPA, deep sea fish oil can improve blood circulation and may enhance memory. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organic Spirulina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">30 capsules / 90 capsules </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suitable for people with a weakened immune system or those looking to improve their overall health and wellbeing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organic spirulina is a natural health care product. It is an excellent source of natural protein discovered in recent times which is rich in properties such as linolenic acid and a-Linolenic acid. 
+Spirulina is an organic food growing in natural environments with a rich source of nutrients, free from any chemical constituents or artificial additives.
+The protein content in organic spirulina boosts the body’s immune system.  Additional benefits are blood acid-base balance, aiding to lower cholesterol, prevent anemia and assist in fat metabolism.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organic spirulina, Magnesium stearate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish oil (1500mg/capsule), Vitamin E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qingfeiling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>baoganning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pro_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ingredient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kangaroo Essence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30 capsules / 90 capsules</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kangaroo powder, locust bean, Vitamin C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suitable for adult males</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This Australian specialty is a preferred supplement for men. Naturally high in male hormones, it is known as a “Male Treasure”.
-The Australian kangaroo is highly regarded for its vigour and fertility. This high quality kangaroo essence is extracted from the adult male Australian kangaroo.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liver Health Complex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">60 tablets / 180 tablets </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Silybum Marianum, turmeric, Pueraria Mirifica</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The ‘Liver Health Complex’ is especially suitable for people who need to maintain their liver’s health.  
+    <t>Lung Health Support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 tablets / 90 tablets </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Suitable for people with a chronic cough, asthma, chest congestion, pollen allergies and people living in an environment with pollution.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">We live in an environment that is polluted and poses risks to our health, particularly our lungs.  
+The Lung Health Support is created to eliminate the harmful effects of a polluted environment.  
+Its compound formula developed by combining traditional natural herbal medicine with modern high-technology processing, provides a unique product designed to overcome the risks we are exposed to from our environment.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Folium eriobotryae, fritillaria cirrhosa, liquorice, lucid ganoderma, burdock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The ‘Liver Health Complex’ is especially suitable for people who need to maintain their liver’s health.  
 The ingredients of this compound integrate a variety of liver toning elements to protect the health of your liver. 
 Liver Health Complex has a main active ingredient called “Silybum Marianum” which is helpful in protecting liver cells. 
-It effectively helps in liver detoxification and has enhancing and remediating effects.</t>
+It effectively helps in liver detoxification and has enhancing and remediating effects. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weigusu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glucosamine Sulfate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suitable for people with cartilage wear and tear, arthritis or people that need joint health care with an increase in age.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glucosamine sulfate (1500mg/tablet)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Famous for its reputation of being a joint lubricant, Glucosamine Sulfate has gained momentum over the years as a guardian of joint health. 
+The human joints are subject to wear and tear which may result in series of joint problems. As a natural component of cartilage matrix, glucosamine sulfate readily assists with rheumatism, and alleviates joint pain caused by osteoarthritis.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -160,6 +354,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -458,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -473,10 +673,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -486,65 +683,538 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="94.5">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="148.5">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="40.5">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="40.5">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="270">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" ht="27">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="175.5">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="54">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="270">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="3" max="3" width="35.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="81">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="54">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="229.5">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="50.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="40.5">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="118.5" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/app/public/json/prodata_en.xlsx
+++ b/app/public/json/prodata_en.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="3285" windowWidth="19665" windowHeight="10890" tabRatio="708" activeTab="7"/>
+    <workbookView windowWidth="28680" windowHeight="13665" tabRatio="708" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="男性健康滋补" sheetId="1" r:id="rId1"/>
@@ -17,300 +17,203 @@
     <sheet name="骨骼健康" sheetId="8" r:id="rId8"/>
     <sheet name="明目健脑" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kangaroo Essence</t>
   </si>
   <si>
     <t>img_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>daishujing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pro_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>specification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 capsules / 90 capsules</t>
   </si>
   <si>
     <t>intro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suitable for adult males.</t>
   </si>
   <si>
     <t>ingredient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Kangaroo powder, locust bean, Vitamin </t>
   </si>
   <si>
     <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kangaroo Essence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30 capsules / 90 capsules</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liver Health Complex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">60 tablets / 180 tablets </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Silybum Marianum, turmeric, Pueraria Mirifica</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Kangaroo powder, locust bean, Vitamin </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suitable for adult males.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">This Australian specialty is a preferred supplement for men. Naturally high in male hormones, it is known as a “Male Treasure”.
 The Australian kangaroo is highly regarded for its vigour and fertility. This high quality kangaroo essence is extracted from the adult male Australian kangaroo.  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High Strength Cranberry</t>
+  </si>
+  <si>
+    <t>Evening Primrose Oil</t>
   </si>
   <si>
     <t>manyuemei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>yuejiancao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>High Strength Cranberry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>270 capsules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suitable for women suffering from premenstrual stress.  </t>
   </si>
   <si>
     <t>Cranberry extract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Evening primrose oil (1200mg/ capsule), γ-linolenic acid </t>
   </si>
   <si>
     <t xml:space="preserve">Cranberries are a natural antibacterial fruit offering health benefits to women by preventing urinary tract infections. 
 Cranberries are tiny red berries rich in nutrients. They are an abundant source of Vitamin C and have the highest concentration of essential nutrients among fruit and vegetables with innumerable health benefits. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Evening Primrose Oil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>270 capsules</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Suitable for women suffering from premenstrual stress.  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Evening primrose oil (1200mg/ capsule), γ-linolenic acid </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">The Evening Primrose Oil is regarded as the most important nutraceutical discovery of the century. It can be used to treat a variety of ailments. 
 The evening primrose is known as the “Royal Imperial Medicine” and as the “King’s Medicine” in Europe. 
 The Evening Primrose Oil is rich in linolenic acid and other nutrients, helping you to maintain good health, it may reduce the effects of premenstrual stress and other menopausal symptoms. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Co Q10</t>
+  </si>
+  <si>
+    <t>fumei</t>
+  </si>
+  <si>
+    <t>coenzyme Q10 (150mg/capsule)</t>
+  </si>
+  <si>
+    <t>In the human body the abundance of coenzyme Q10 decreases with age. This decrease, combined with unhealthy habits may affect the health of your heart. Coenzyme Q10 is known as the guardian of the heart and builds up immunity. It has antioxident properties, which may delay aging and improve overall vitality</t>
+  </si>
+  <si>
+    <t>Odourless High Strength Wild Fish Oil</t>
+  </si>
+  <si>
+    <t>Organic Spirulina</t>
   </si>
   <si>
     <t>shenhaiyuyou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>luoxuanzao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pro_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ingredient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Odourless High Strength Wild Fish Oil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fumei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Co Q10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coenzyme Q10 (150mg/capsule)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In the human body the occurrence of coenzyme Q10 decreases with age. This decrease, combined with unhealthy habits may affect your heart. 
-Coenzyme Q10 is known as the guardian of the heart and builds up immunity. It has antioxidant properties, delays aging and improves overall body vitality.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 180 capsules</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">30 capsules / 90 capsules </t>
   </si>
   <si>
     <t xml:space="preserve">Suitable for people who want to improve heart, brain, eye or joint health. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suitable for people with a weakened immune system or those looking to improve their overall health and wellbeing.</t>
+  </si>
+  <si>
+    <t>Fish oil (1500mg/capsule), Vitamin E</t>
+  </si>
+  <si>
+    <t>Organic spirulina, Magnesium stearate</t>
   </si>
   <si>
     <t xml:space="preserve">Deep sea fish oil originates from the deep sea where there is little or no pollution and is extracted as an unsaturated fat from fish. It is perfect for improving eyesight and is beneficial especially for the heart, brain, joints and eyes.
 It is rich in nutrients such as Omega-3 fatty acid, DHA and EPA, deep sea fish oil can improve blood circulation and may enhance memory. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Organic Spirulina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">30 capsules / 90 capsules </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suitable for people with a weakened immune system or those looking to improve their overall health and wellbeing.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Organic spirulina is a natural health care product. It is an excellent source of natural protein discovered in recent times which is rich in properties such as linolenic acid and a-Linolenic acid. 
 Spirulina is an organic food growing in natural environments with a rich source of nutrients, free from any chemical constituents or artificial additives.
 The protein content in organic spirulina boosts the body’s immune system.  Additional benefits are blood acid-base balance, aiding to lower cholesterol, prevent anemia and assist in fat metabolism.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Organic spirulina, Magnesium stearate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish oil (1500mg/capsule), Vitamin E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lung Health Support</t>
+  </si>
+  <si>
+    <t>Liver Health Complex</t>
   </si>
   <si>
     <t>qingfeiling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>baoganning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lung Health Support</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 30 tablets / 90 tablets </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">60 tablets / 180 tablets </t>
   </si>
   <si>
     <t xml:space="preserve">Suitable for people with a chronic cough, asthma, chest congestion, pollen allergies and people living in an environment with pollution.  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Folium eriobotryae, fritillaria cirrhosa, liquorice, lucid ganoderma, burdock</t>
+  </si>
+  <si>
+    <t>Silybum Marianum, turmeric, Pueraria Mirifica</t>
   </si>
   <si>
     <t xml:space="preserve">We live in an environment that is polluted and poses risks to our health, particularly our lungs.  
 The Lung Health Support is created to eliminate the harmful effects of a polluted environment.  
 Its compound formula developed by combining traditional natural herbal medicine with modern high-technology processing, provides a unique product designed to overcome the risks we are exposed to from our environment.  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Folium eriobotryae, fritillaria cirrhosa, liquorice, lucid ganoderma, burdock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The ‘Liver Health Complex’ is especially suitable for people who need to maintain their liver’s health.  
-The ingredients of this compound integrate a variety of liver toning elements to protect the health of your liver. 
-Liver Health Complex has a main active ingredient called “Silybum Marianum” which is helpful in protecting liver cells. 
-It effectively helps in liver detoxification and has enhancing and remediating effects. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Liver Health Complex is suitable for people who need to maintain their liver's health.  Its main active ingredient, Silybum Marianum, may help in protecting liver cells.  It aids  liver detoxification and has remedial qualities. </t>
+  </si>
+  <si>
+    <t>Glucosamine Sulfate</t>
   </si>
   <si>
     <t>weigusu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glucosamine Sulfate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Suitable for people with cartilage wear and tear, arthritis or people that need joint health care with an increase in age.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Glucosamine sulfate (1500mg/tablet)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Famous for its reputation of being a joint lubricant, Glucosamine Sulfate has gained momentum over the years as a guardian of joint health. 
 The human joints are subject to wear and tear which may result in series of joint problems. As a natural component of cartilage matrix, glucosamine sulfate readily assists with rheumatism, and alleviates joint pain caused by osteoarthritis.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -318,18 +221,362 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -337,9 +584,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -347,27 +836,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -655,94 +1191,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="50.75" customWidth="1"/>
     <col min="3" max="3" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="14.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="94.5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="94.5" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="26.125" customWidth="1"/>
@@ -754,93 +1292,94 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="6" ht="40.5" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="270" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="40.5">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="40.5">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="270">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="25.625" customWidth="1"/>
@@ -851,85 +1390,87 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" ht="27" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" ht="27">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="175.5">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>39</v>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="202.5" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="29.375" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
@@ -937,111 +1478,113 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.5">
-      <c r="A4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="54">
-      <c r="A5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27">
-      <c r="A6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="270">
-      <c r="A7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>46</v>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" ht="270" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="28.125" customWidth="1"/>
     <col min="3" max="3" width="35.875" customWidth="1"/>
@@ -1049,94 +1592,95 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.5">
-      <c r="A4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" ht="81" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" ht="54" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" ht="229.5" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="81">
-      <c r="A5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="54">
-      <c r="A6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="229.5">
-      <c r="A7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>56</v>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="50.5" customWidth="1"/>
@@ -1147,74 +1691,75 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="40.5">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="118.5" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>61</v>
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" ht="118.5" customHeight="1" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/app/public/json/prodata_en.xlsx
+++ b/app/public/json/prodata_en.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13665" tabRatio="708" activeTab="6"/>
+    <workbookView xWindow="870" yWindow="3570" windowWidth="28680" windowHeight="10590" tabRatio="708" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="男性健康滋补" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="骨骼健康" sheetId="8" r:id="rId8"/>
     <sheet name="明目健脑" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
   <si>
     <t>key</t>
   </si>
@@ -198,18 +198,37 @@
     <t>Famous for its reputation of being a joint lubricant, Glucosamine Sulfate has gained momentum over the years as a guardian of joint health. 
 The human joints are subject to wear and tear which may result in series of joint problems. As a natural component of cartilage matrix, glucosamine sulfate readily assists with rheumatism, and alleviates joint pain caused by osteoarthritis.</t>
   </si>
+  <si>
+    <t>High Strength Grape Seed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>putaozi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 capsules / 180 capsules</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suitable for people who are vulnerable to allergies, spots, enlarged pores and repeated acne.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grape seed extract (1500mg/capsule), lecithin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>High Strength Grape Seed is believed to be the “skin vitamins" and "oral cosmetics" sourced from nature. Grape seed extract is by far the most powerful natural antioxidant and the most effective free-radical scavenger ever found.
+Its properties supply nutrients for general health and wellbeing. It enhances the skin’s elasticity and has anti-aging properties.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,7 +240,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -231,352 +250,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -584,251 +272,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -852,57 +298,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1191,21 +590,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="50.75" customWidth="1"/>
     <col min="3" max="3" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1213,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1230,7 +628,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" ht="14.25" spans="1:3">
+    <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1248,7 +646,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1256,7 +654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="94.5" spans="1:3">
+    <row r="7" spans="1:3" ht="94.5">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1266,28 +664,27 @@
       <c r="C7" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="26.125" customWidth="1"/>
     <col min="4" max="4" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1297,8 +694,11 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1308,8 +708,11 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1319,8 +722,11 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:3">
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1330,8 +736,11 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" ht="40.5" spans="1:3">
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="54">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1341,8 +750,11 @@
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:3">
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="40.5">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1352,8 +764,11 @@
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" ht="270" spans="1:3">
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="270">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1363,23 +778,25 @@
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="25.625" customWidth="1"/>
@@ -1409,7 +826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:2">
+    <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1423,7 +840,7 @@
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" ht="27" spans="1:2">
+    <row r="6" spans="1:2" ht="27">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1431,7 +848,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="202.5" spans="1:2">
+    <row r="7" spans="1:2" ht="216">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1440,14 +857,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1456,21 +872,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="29.375" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
@@ -1509,7 +924,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:3">
+    <row r="4" spans="1:3" ht="28.5">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1520,7 +935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" ht="54" spans="1:3">
+    <row r="5" spans="1:3" ht="54">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1531,7 +946,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:3">
+    <row r="6" spans="1:3" ht="27">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1542,7 +957,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" ht="270" spans="1:3">
+    <row r="7" spans="1:3" ht="270">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1554,14 +969,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1570,21 +984,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="28.125" customWidth="1"/>
     <col min="3" max="3" width="35.875" customWidth="1"/>
@@ -1623,7 +1036,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:3">
+    <row r="4" spans="1:3" ht="28.5">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1634,7 +1047,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" ht="81" spans="1:3">
+    <row r="5" spans="1:3" ht="81">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1643,7 +1056,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" ht="54" spans="1:3">
+    <row r="6" spans="1:3" ht="54">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1654,7 +1067,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" ht="229.5" spans="1:3">
+    <row r="7" spans="1:3" ht="229.5">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1666,21 +1079,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="50.5" customWidth="1"/>
@@ -1710,7 +1122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:2">
+    <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1718,7 +1130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" ht="40.5" spans="1:2">
+    <row r="5" spans="1:2" ht="40.5">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1734,7 +1146,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" ht="118.5" customHeight="1" spans="1:2">
+    <row r="7" spans="1:2" ht="118.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1743,14 +1155,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1759,7 +1170,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>